--- a/DOM_Banner/output/dept_banner/Billie Bixby_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Billie Bixby_2022.xlsx
@@ -1398,7 +1398,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1411590778", "https://openalex.org/W2253722846", "https://openalex.org/W2385452910", "https://openalex.org/W2143306440", "https://openalex.org/W2354045189", "https://openalex.org/W138452503", "https://openalex.org/W4281669991", "https://openalex.org/W2361457966", "https://openalex.org/W2949120644", "https://openalex.org/W2360078441")</t>
+          <t>c("https://openalex.org/W2395369011", "https://openalex.org/W3169186547", "https://openalex.org/W2041783360", "https://openalex.org/W2399513595", "https://openalex.org/W4388386498", "https://openalex.org/W2028462563", "https://openalex.org/W2942994004", "https://openalex.org/W2982720988", "https://openalex.org/W3150324899", "https://openalex.org/W1411590778")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Billie Bixby_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Billie Bixby_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,24 +452,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States; Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225297978</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Endobronchial Enigma</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -472,14 +477,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4510</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4510</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,24 +539,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States; Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225299181</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The Silent Solitary Fibrous Tumor</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -554,14 +564,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4734</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4734</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,24 +626,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States; Pulmonary &amp; Critical Care, University of Arizona, Tucson, AZ, United States; Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225316804</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>A Rare Presentation of Disseminated Coccidioidomycosis Requiring Mechanical Intervention</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -636,14 +651,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4124</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4124</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>; ; ; University of Utah Health; ; ; University of Utah - School of Medicine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226154297</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>A Population-Based Description of Incidence and Familial Clustering of Pulmonary Carcinoid Tumors</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Social Science Research Network</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>RELX Group (Netherlands)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4010583</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4010583</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; ; The Division of Vascular Surgery, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; R. Ken Coit College of Pharmacy; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; R. Ken Coit College of Pharmacy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312096929</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-12-22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.21.521463</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36597549</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.21.521463</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
